--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59132.35182017903</v>
+        <v>11658797.39090827</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59132.35182017903</v>
+        <v>11658797.39090827</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>215725.4756614915</v>
+        <v>24577329.13000166</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215725.4756614915</v>
+        <v>24577329.13000166</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1491088380.375738</v>
+        <v>30303279.44590551</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18006.94976307125</v>
+        <v>718643.8212754044</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34947.38294697803</v>
+        <v>1267544.586748126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51870.49710760055</v>
+        <v>1816445.352220848</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68466.94641940847</v>
+        <v>2365235.510153343</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85063.39573121638</v>
+        <v>2914025.668085838</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101690.0689864889</v>
+        <v>3503093.498189041</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118091.3227252392</v>
+        <v>4341007.461023713</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>134183.7279791411</v>
+        <v>5117460.575373536</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>150512.4845436965</v>
+        <v>5696785.366784416</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>167052.8355823515</v>
+        <v>6324116.40748824</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>183593.1866210065</v>
+        <v>6951447.448192061</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>200133.5376596614</v>
+        <v>7578778.488895873</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216673.8886983166</v>
+        <v>8206109.529599684</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>234013.7283524827</v>
+        <v>8698403.958412917</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250857.4482924676</v>
+        <v>8931741.700560348</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>88</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>61</v>
